--- a/biology/Botanique/Myristica/Myristica.xlsx
+++ b/biology/Botanique/Myristica/Myristica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myristica est un genre de plantes à fleurs de la famille des Myristicaceae.
 L’espèce la plus importante sur le plan économique est Myristica fragrans, le muscadier qui produit la noix de muscade.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (18 septembre 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (18 septembre 2020) :
 Myristica acsmithii W. J. J. O. de Wilde
 Myristica agusanensis Elmer
 Myristica alba W. J. J. O. de Wilde
@@ -690,7 +704,7 @@
 Myristica wyatt-smithii Airy Shaw
 Myristica xylocarpa W. J. J. O. de Wilde
 Myristica yunnanensis Y. H. Li
-Selon Plants of the World online (POWO)                (18 septembre 2020)[3] et World Checklist of Vascular Plants (WCVP)                (18 septembre 2020)[4] :
+Selon Plants of the World online (POWO)                (18 septembre 2020) et World Checklist of Vascular Plants (WCVP)                (18 septembre 2020) :
 Myristica acsmithii W.J.de Wilde
 Myristica agusanensis Elmer
 Myristica alba W.J.de Wilde
@@ -866,7 +880,7 @@
 Myristica wyatt-smithii Airy Shaw
 Myristica xylocarpa W.J.de Wilde
 Myristica yunnanensis Y.H.Li
-Selon Tropicos                                           (18 septembre 2020)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (18 septembre 2020) (Attention liste brute contenant possiblement des synonymes) :
 Myristica acsmithii W.J. de Wilde
 Myristica acuminata Lam.
 Myristica agusanensis Elmer
